--- a/biology/Botanique/Forêts_humides_de_l'Atsinanana/Forêts_humides_de_l'Atsinanana.xlsx
+++ b/biology/Botanique/Forêts_humides_de_l'Atsinanana/Forêts_humides_de_l'Atsinanana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_de_l%27Atsinanana</t>
+          <t>Forêts_humides_de_l'Atsinanana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les forêts humides de l’Atsinanana à Madagascar couvrent six parcs nationaux sur la partie orientale de l’île. Ces forêts anciennes racontent l’histoire géologique de l’île, sa séparation d’avec les autres continents, il y a plus de 60 millions d’années. Elles sont inscrites sur la liste du patrimoine mondial de l’UNESCO pour leur biodiversité et les espèces menacées qui y vivent, tel que les lémuriens. Elle est aussi inscrite sur la liste du patrimoine mondial en péril de l'UNESCO[1].
+Les forêts humides de l’Atsinanana à Madagascar couvrent six parcs nationaux sur la partie orientale de l’île. Ces forêts anciennes racontent l’histoire géologique de l’île, sa séparation d’avec les autres continents, il y a plus de 60 millions d’années. Elles sont inscrites sur la liste du patrimoine mondial de l’UNESCO pour leur biodiversité et les espèces menacées qui y vivent, tel que les lémuriens. Elle est aussi inscrite sur la liste du patrimoine mondial en péril de l'UNESCO.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_humides_de_l%27Atsinanana</t>
+          <t>Forêts_humides_de_l'Atsinanana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les parcs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le parc national d'Andohahela, 76 020 ha dans le sud-est de l'île, constitué par de la forêt tropicale dense et une forêt épineuse typique de l’île.
 Le parc national d'Andringitra, 31 160 ha dans le sud-est de l'île, constitué par de hautes montagnes, dont la plus haute culmine à 2 658 m, et de profondes vallées. La forêt est dite « tropicale de basse altitude » (forêts d'épineux, orchidées, 300 espèces de plantes vasculaires, fleurs sauvages). On y trouve plus de cent espèces d'oiseaux, 55 espèces d'anoures et treize espèces de lémuriens.
